--- a/V1.3/data.xlsx
+++ b/V1.3/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\V1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E182E87E-02CA-43E9-9F45-925A2AC743E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621A1C45-7543-45E9-B767-734B708BA99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="1164" windowWidth="16548" windowHeight="9420" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ProjectID_ProjectName</t>
   </si>
@@ -50,15 +50,9 @@
     <t>have a nice day</t>
   </si>
   <si>
-    <t>what a good day</t>
-  </si>
-  <si>
     <t>popup count</t>
   </si>
   <si>
-    <t>main jpg</t>
-  </si>
-  <si>
     <t>slide_1</t>
   </si>
   <si>
@@ -68,16 +62,10 @@
     <t>slide_3</t>
   </si>
   <si>
-    <t>slide_4</t>
-  </si>
-  <si>
-    <t>Raise the bar in psoriasis treatment</t>
-  </si>
-  <si>
-    <t>slide_5</t>
-  </si>
-  <si>
     <t>4477_NABEEL</t>
+  </si>
+  <si>
+    <t>respective image</t>
   </si>
 </sst>
 </file>
@@ -444,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6037C9E2-E54E-4A09-98C3-32313390912A}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,21 +453,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -490,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -501,26 +489,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
